--- a/TÜRKİYENİN FINDIK ÜRETİM ALANLARI (3).xlsx
+++ b/TÜRKİYENİN FINDIK ÜRETİM ALANLARI (3).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ogrenci\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABCAE08-CC70-4524-A950-72C09520C43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="72" windowWidth="22008" windowHeight="9504"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -16,34 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
-  <si>
-    <t>İLLER</t>
-  </si>
-  <si>
-    <t>2008 HEKTAR</t>
-  </si>
-  <si>
-    <t>2009 HEKTAR</t>
-  </si>
-  <si>
-    <t>2010 HEKTAR</t>
-  </si>
-  <si>
-    <t>2011 HEKTAR</t>
-  </si>
-  <si>
-    <t>2013 HEKTAR</t>
-  </si>
-  <si>
-    <t>2012 HEKTAR</t>
-  </si>
-  <si>
-    <t>2014 HEKTAR</t>
-  </si>
-  <si>
-    <t>2015 HEKTAR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>ORDU</t>
   </si>
@@ -99,8 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +128,4201 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>Ordu</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR" baseline="0"/>
+              <a:t> Fındık Üretim Alanları</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sayfa1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORDU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sayfa1!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>212566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>226930</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226930</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226930</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>227121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>227121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>227121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84D5-4E38-A19E-0FA15552A472}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1772388352"/>
+        <c:axId val="1772388768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1772388352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1772388768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1772388768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR"/>
+                  <a:t>HEKTAR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="tr-TR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1772388352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>Giresun Trabzon Fındık Üretim Alanları</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sayfa1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GİRESUN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>101350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117729</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117729</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117729</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78CC-493D-B71E-6C867A6AC55C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sayfa1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TRABZON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>59964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65485</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78CC-493D-B71E-6C867A6AC55C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1899537952"/>
+        <c:axId val="1899536288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1899537952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1899536288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1899536288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR"/>
+                  <a:t>hektar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="tr-TR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1899537952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>İllerin Fındık Üretim Alanları</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2154359436413732"/>
+          <c:y val="4.5714958275955418E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="tr-TR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sayfa1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ORDU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GİRESUN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TRABZON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RİZE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>227121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-137E-4CAE-8532-EF4EAFEC3CDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>İllerin Fındık Üretim Alanları</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20736595936407134"/>
+          <c:y val="6.7146282973621102E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sayfa1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ORDU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sayfa1!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>212566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>226930</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226930</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226930</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>227121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>227121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>227121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58D2-4C4A-8328-854749B01A7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sayfa1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GİRESUN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sayfa1!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>101350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117729</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117729</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117729</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117729</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58D2-4C4A-8328-854749B01A7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sayfa1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TRABZON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sayfa1!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>59964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65485</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-58D2-4C4A-8328-854749B01A7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1943108816"/>
+        <c:axId val="1943103408"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1943108816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1943103408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1943103408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR"/>
+                  <a:t>Hektar</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="tr-TR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1943108816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="281">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B451A326-FF5F-4C4D-A64D-CC3CDD9C5EEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7EFF07-5174-4D6A-8B57-6BDBBD9600A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafik 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB73F6A-D040-4656-8843-E28865DCD580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafik 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEFD9A9-96CE-4045-A520-3E8EF1DE3BA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,9 +4360,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +4394,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,9 +4446,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,58 +4639,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2015</v>
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>212566</v>
@@ -514,9 +4714,9 @@
         <v>227121</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>101350</v>
@@ -543,9 +4743,9 @@
         <v>117729</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>59964</v>
@@ -572,9 +4772,9 @@
         <v>65485</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>2500</v>
@@ -601,9 +4801,9 @@
         <v>3607</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>13421</v>
@@ -630,9 +4830,9 @@
         <v>8122</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>90290</v>
@@ -659,18 +4859,18 @@
         <v>90123</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>817</v>
@@ -688,9 +4888,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>7545</v>
@@ -717,9 +4917,9 @@
         <v>7212</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>62696</v>
@@ -746,9 +4946,9 @@
         <v>62685</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>68510</v>
@@ -775,9 +4975,9 @@
         <v>70972</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>23428</v>
@@ -804,9 +5004,9 @@
         <v>23595</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>1859</v>
@@ -833,9 +5033,9 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>3807</v>
@@ -862,9 +5062,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>8337</v>
@@ -891,38 +5091,38 @@
         <v>8434</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I16" s="2">
         <v>1250</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>656273</v>
@@ -952,28 +5152,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
